--- a/ClassDiagram.xlsx
+++ b/ClassDiagram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>USER</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Product updateProduct(Product product)</t>
-  </si>
-  <si>
-    <t>User readUser(String email)</t>
   </si>
   <si>
     <t>Product readProduct(String name)</t>
@@ -637,7 +634,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -671,10 +668,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -693,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>24</v>
@@ -713,16 +710,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60">
@@ -733,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>25</v>
@@ -753,13 +747,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30">
@@ -770,10 +764,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -817,7 +811,7 @@
     </row>
     <row r="20" spans="1:3" ht="45">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
